--- a/doc/publication/iCARE_cloud.xlsx
+++ b/doc/publication/iCARE_cloud.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f1e44f6614d5618/CODE/iCARE_cloud/doc/publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{0841D5D8-C37A-9242-BB0B-724B87FF824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BE57DCC-10C5-B448-BCAF-268442982ED5}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{0841D5D8-C37A-9242-BB0B-724B87FF824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D766C7F9-4B4C-A241-B8CE-AAC7356EAD00}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{2A3E9B05-BF6A-3C40-9B99-80A7C60A9DA7}"/>
   </bookViews>
@@ -49,17 +49,17 @@
     <t>raw</t>
   </si>
   <si>
-    <t>Moufia cloud type 2019 @15min</t>
-  </si>
-  <si>
     <t>Cloud
 Type</t>
   </si>
   <si>
-    <t>reallocation</t>
+    <t>regroup</t>
   </si>
   <si>
-    <t>regroup</t>
+    <t>Moufia cloud type 201706-202206 @15min</t>
+  </si>
+  <si>
+    <t>reallocation #10</t>
   </si>
 </sst>
 </file>
@@ -138,22 +138,22 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,404 +472,404 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551CE19D-22E5-8345-A184-4F5309E91C7B}">
   <dimension ref="E12:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="12" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="5:11" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="6"/>
+      <c r="F15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>105792</v>
+      </c>
+      <c r="G16" s="1">
+        <v>59.92</v>
+      </c>
+      <c r="H16" s="1">
+        <v>114216</v>
+      </c>
+      <c r="I16" s="1">
+        <v>64.69</v>
+      </c>
+      <c r="J16" s="1">
+        <v>114216</v>
+      </c>
+      <c r="K16" s="1">
+        <v>64.69</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
         <v>3</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8" t="s">
+      <c r="F18" s="1">
+        <v>83</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="1">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>21207</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="H20" s="1">
+        <v>25316</v>
+      </c>
+      <c r="I20" s="1">
+        <v>14.34</v>
+      </c>
+      <c r="J20" s="1">
+        <v>25316</v>
+      </c>
+      <c r="K20" s="1">
+        <v>14.34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E21" s="2">
         <v>6</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8" t="s">
+      <c r="F21" s="2">
+        <v>13797</v>
+      </c>
+      <c r="G21" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14611</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J21" s="2">
+        <v>14611</v>
+      </c>
+      <c r="K21" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
         <v>7</v>
       </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20884</v>
-      </c>
-      <c r="G16" s="2">
-        <v>60.4</v>
-      </c>
-      <c r="H16" s="2">
-        <v>22678</v>
-      </c>
-      <c r="I16" s="2">
-        <v>65.59</v>
-      </c>
-      <c r="J16" s="2">
-        <v>22678</v>
-      </c>
-      <c r="K16" s="2">
-        <v>65.59</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E17" s="3">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="F22" s="1">
+        <v>3208</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3214</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3214</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4303</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4303</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4303</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1057</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1057</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1057</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E25" s="2">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2">
+        <v>13729</v>
+      </c>
+      <c r="G25" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
         <v>11</v>
       </c>
-      <c r="G18" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="H18" s="2">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4421</v>
-      </c>
-      <c r="G20" s="2">
-        <v>12.79</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5253</v>
-      </c>
-      <c r="I20" s="2">
-        <v>15.19</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5253</v>
-      </c>
-      <c r="K20" s="2">
-        <v>15.19</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E21" s="3">
-        <v>6</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2357</v>
-      </c>
-      <c r="G21" s="3">
-        <v>6.82</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2558</v>
-      </c>
-      <c r="I21" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2558</v>
-      </c>
-      <c r="K21" s="3">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E22" s="2">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2">
-        <v>511</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="H22" s="2">
-        <v>511</v>
-      </c>
-      <c r="I22" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="J22" s="2">
-        <v>511</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E23" s="3">
-        <v>8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>716</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H23" s="3">
-        <v>716</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J23" s="3">
-        <v>716</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E24" s="2">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2">
-        <v>95</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="H24" s="2">
-        <v>95</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="J24" s="2">
-        <v>95</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E25" s="3">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2923</v>
-      </c>
-      <c r="G25" s="3">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E26" s="2">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2">
-        <v>308</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="H26" s="2">
-        <v>363</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1.05</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2756</v>
-      </c>
-      <c r="K26" s="2">
-        <v>7.97</v>
+      <c r="F26" s="1">
+        <v>1063</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1243</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="1">
+        <v>13714</v>
+      </c>
+      <c r="K26" s="1">
+        <v>7.77</v>
       </c>
     </row>
     <row r="27" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>12</v>
       </c>
-      <c r="F27" s="3">
-        <v>1467</v>
-      </c>
-      <c r="G27" s="3">
-        <v>4.24</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>4.34</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="F27" s="2">
+        <v>6863</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.89</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7032</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3.98</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>13</v>
       </c>
-      <c r="F28" s="2">
-        <v>428</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="H28" s="2">
-        <v>428</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1.24</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
+      <c r="F28" s="1">
+        <v>2908</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2908</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>14</v>
       </c>
-      <c r="F29" s="3">
-        <v>457</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="H29" s="3">
-        <v>465</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1.34</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="F29" s="2">
+        <v>2504</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2531</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>15</v>
       </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
         <v>0</v>
       </c>
     </row>
